--- a/biology/Botanique/Convolvulus_boissieri/Convolvulus_boissieri.xlsx
+++ b/biology/Botanique/Convolvulus_boissieri/Convolvulus_boissieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus boissieri (syn. C. nitidus) est une espèce de plantes dicotylédones de la famille des Convolvulaceae. Ce sont des plantes herbacées ou sous-arbrisseaux à tiges rampantes légèrement ligneuses à la base, formant des plaques d'une trentaine de centimètres de diamètre. L'espèce est originaire des montagnes du sud de l'Espagne, et des Balkans jusqu'à la Turquie pour la sous-espèce Convolvulus boissieri subsp. compactus. On la rencontre sur les rochers et éboulis calcaires.
 </t>
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonyme
-Selon BioLib                    (19 avril 2019)[2] :
-Convolvulus nitidus Boiss.
-Liste des sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (19 avril 2019)[1] :
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (19 avril 2019) :
+Convolvulus nitidus Boiss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Convolvulus_boissieri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convolvulus_boissieri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avril 2019) :
 Convolvulus boissieri subsp. boissieri
 Convolvulus boissieri subsp. compactus (Boiss.) Stace (1971)</t>
         </is>
